--- a/Step_1/415 Stuff/Discovery/Vision Canvas.xlsx
+++ b/Step_1/415 Stuff/Discovery/Vision Canvas.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruo/Downloads/CS 415/Unreal Projects/CS415_31-Game/Step_1/415 Stuff/Discovery/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F627C-D90D-674D-8254-4E7F58FEE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Vision Canvas" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Example Vision Canvas" sheetId="2" r:id="rId5"/>
+    <sheet name="Vision Canvas" sheetId="1" r:id="rId1"/>
+    <sheet name="Example Vision Canvas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="uD6K0hOnHzoEiFOkHuZ9lcdEut0SobqI0MyYcTyiZY0="/>
@@ -33,28 +42,28 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">1. Genre                                                              </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
       </rPr>
       <t>( 1st person shooter, Puzzle, Sidescroller, etc.)</t>
     </r>
@@ -68,19 +77,19 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri, Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">7. Core System Breakdown                                           </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
       </rPr>
       <t>(ex: Combat has Melee/Range)</t>
     </r>
@@ -115,40 +124,33 @@
 healing herbs, etc as they proceed</t>
   </si>
   <si>
-    <t>student studying animation in 3D</t>
-  </si>
-  <si>
     <t xml:space="preserve">Players can combat enemies such as soldier, evil pharaohs </t>
-  </si>
-  <si>
-    <t>2 endings in 3D world, one where the student 
-passes the exam and one where he fails</t>
   </si>
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">2. IP/World/Environment          </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="7"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="7.0"/>
       </rPr>
       <t xml:space="preserve">                               </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>(high level of environment, characters, style, history, etc.)</t>
     </r>
@@ -156,19 +158,19 @@
   <si>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">4. Player Experience                                     </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>(in the form "User will feel... when they …")</t>
     </r>
@@ -268,17 +270,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Inspirations should state what element of the project they are inspiring.  </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Example:  Red Dead 2 (UI)</t>
     </r>
@@ -286,17 +289,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Look for things that don't belong.  </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Example: World descriptions, Features, Systems. </t>
     </r>
@@ -307,18 +311,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">These should be in the form of "User Can…" The items don't need that phrase but should flow from it.  Example: </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Explore a vast world of differing climates.</t>
     </r>
@@ -333,18 +337,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Look for missing elements:</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> Example: 3rd person but no genre like RPG or Action.</t>
     </r>
@@ -358,25 +362,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Think of elements that support key project infrastructure or system that are inferred by Core Pillars. </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Examples: Travel app that visits various sites in a Country needs a transit system between sites</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>.</t>
     </r>
@@ -411,18 +416,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Each element should describe the background / World, giving context to the project.  Review the other areas to ensure the correct elements are present.  </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="10.0"/>
       </rPr>
       <t>Example: Genre says RPG and World says Post-Apocalyptic, mising near future or far future to help define the world/tech.</t>
     </r>
@@ -442,18 +447,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">This should only be for experiences, not other areas of the canvas. </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Example: a core pillar, system or type is listed in this area </t>
     </r>
@@ -593,72 +598,161 @@
   </si>
   <si>
     <t>Pacman</t>
+  </si>
+  <si>
+    <t>student studying animation in 3D, if not feasible then using normal menu</t>
+  </si>
+  <si>
+    <t>2 endings in 3D world, one where the student 
+passes the exam and one where he fails, also if not feasible then switch to normal ending screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri, Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -666,7 +760,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -718,27 +812,39 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -748,6 +854,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -762,19 +869,27 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -786,6 +901,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -794,192 +911,146 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="6" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1169,467 +1240,472 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="50.75"/>
-    <col customWidth="1" min="3" max="3" width="46.5"/>
-    <col customWidth="1" min="4" max="26" width="50.75"/>
+    <col min="1" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+    <col min="4" max="26" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="36.0" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="36" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="45.0" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="45" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="42.0" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="42" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="29.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="48">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="17" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="48">
+      <c r="A12" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="13" t="s">
+      <c r="B12" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="13" t="s">
+      <c r="B13" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="39" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="13" t="s">
+      <c r="B14" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="39.0" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="13" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="13" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13" t="s">
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A26" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="20" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="B27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="13" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B28" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" ht="32.25" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1">
+      <c r="A32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="13" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" ht="24.0" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" ht="24.0" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="C33" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="E33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="30" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="59.25" customHeight="1">
+      <c r="A34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" ht="59.25" customHeight="1">
-      <c r="A34" s="32" t="s">
+      <c r="C34" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="D34" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="E34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="34" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="61.5" customHeight="1">
+      <c r="A35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="B35" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" ht="61.5" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="C35" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="D35" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="E35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="33" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="57.75" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="C36" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" ht="57.75" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38" t="s">
+      <c r="D36" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" ht="100.5" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="E37" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" ht="100.5" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="40" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="78" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="C38" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" ht="78.0" customHeight="1">
-      <c r="A38" s="33"/>
-      <c r="B38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="E38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="40" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="93" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="C39" s="25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" ht="93.0" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="37" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="39" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="99" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="40" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" ht="99.0" customHeight="1">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39" t="s">
+    <row r="41" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" ht="66.75" customHeight="1">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="38"/>
-    </row>
-    <row r="42" ht="24.0" customHeight="1"/>
-    <row r="43" ht="24.0" customHeight="1"/>
-    <row r="44" ht="103.5" customHeight="1"/>
-    <row r="45" ht="24.0" customHeight="1"/>
-    <row r="46" ht="24.0" customHeight="1"/>
-    <row r="47" ht="86.25" customHeight="1"/>
-    <row r="48" ht="61.5" customHeight="1"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1"/>
+    <row r="43" spans="1:5" ht="24" customHeight="1"/>
+    <row r="44" spans="1:5" ht="103.5" customHeight="1"/>
+    <row r="45" spans="1:5" ht="24" customHeight="1"/>
+    <row r="46" spans="1:5" ht="24" customHeight="1"/>
+    <row r="47" spans="1:5" ht="86.25" customHeight="1"/>
+    <row r="48" spans="1:5" ht="61.5" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -2589,290 +2665,291 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B32:E32"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="34.63"/>
-    <col customWidth="1" min="4" max="4" width="47.13"/>
-    <col customWidth="1" min="5" max="5" width="34.63"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="43.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" ht="35.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="B4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" ht="45.75" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="C4" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="66" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" ht="66.0" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="67.5" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="16" t="s">
+      <c r="C6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" ht="67.5" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" ht="34.5" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" ht="28.5" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="33" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16" t="s">
+      <c r="B10" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A11" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="B11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="16" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="34.5" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16" t="s">
+      <c r="B12" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" ht="34.5" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="45.75" customHeight="1">
+      <c r="A13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="16" t="s">
+      <c r="B13" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" ht="45.75" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="39.75" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="39.75" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="16" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A18" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A19" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="16" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A20" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="21" t="s">
+      <c r="B20" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="C20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="D20" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3847,6 +3924,6 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>